--- a/medicine/Handicap/Prix_Pierre-Villey/Prix_Pierre-Villey.xlsx
+++ b/medicine/Handicap/Prix_Pierre-Villey/Prix_Pierre-Villey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Pierre-Villey, de la fondation du même nom, est un ancien prix quinquennal de littérature, créé en 1935 par l'Académie française et « destiné à encourager les aveugles à vaincre les obstacles que leur infirmité oppose aux travaux intellectuels »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Pierre-Villey, de la fondation du même nom, est un ancien prix quinquennal de littérature, créé en 1935 par l'Académie française et « destiné à encourager les aveugles à vaincre les obstacles que leur infirmité oppose aux travaux intellectuels ».
 Pierre Louis Joseph Villey-Desmeserets, ou  Pierre Villey, né le 15 octobre 1879 à Caen et mort le 24 octobre 1933 à Conches-en-Ouche, normalien, est un universitaire français, professeur à la faculté des lettres de Caen, spécialiste de la littérature française du XVIe siècle, secrétaire général de l'Association Valentin Haüy.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1944 : Pierre Henri pour La Vie des aveugles
 1949 : Louis-Germain Lejeune
